--- a/Studieplan.xlsx
+++ b/Studieplan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11104"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/magnusholtet/Documents/Studierelatert/NTNU/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/magnusholtet/Development/Github/NTNU/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA0FB58-D97B-374A-8CDE-56466FF62541}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46249CC3-2A59-6F4B-AB27-C8E4F34808C6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="22720" xr2:uid="{2906EECB-BA3C-1249-8346-2B699AD9D054}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="22580" xr2:uid="{2906EECB-BA3C-1249-8346-2B699AD9D054}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="96">
   <si>
     <t>År</t>
   </si>
@@ -279,12 +279,6 @@
   </si>
   <si>
     <t>Minst 2 x'er må være valgfrie INFORMATIKKEMNER.</t>
-  </si>
-  <si>
-    <t>TDT4180 (?)</t>
-  </si>
-  <si>
-    <t>TDT4145 (?)</t>
   </si>
   <si>
     <t>Introduksjon til datateknologi</t>
@@ -537,9 +531,6 @@
   <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -549,18 +540,9 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -568,9 +550,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -599,12 +578,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -621,40 +594,61 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -976,7 +970,7 @@
   <dimension ref="A1:N39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -998,859 +992,860 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="H1" s="2" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="H1" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="K1" s="2" t="s">
+      <c r="I1" s="36"/>
+      <c r="K1" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="H2" s="5" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="H2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
+      <c r="A3" s="38">
         <v>3</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="10" t="s">
+      <c r="D3" s="41"/>
+      <c r="E3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="L3" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="2" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="13"/>
-      <c r="B4" s="14" t="s">
+      <c r="A4" s="39"/>
+      <c r="B4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="L4" s="12" t="s">
+      <c r="L4" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" s="2" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="6">
+      <c r="A5" s="38">
         <v>2</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="L5" s="12" t="s">
+      <c r="L5" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="M5" s="2" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="13"/>
-      <c r="B6" s="18" t="s">
+      <c r="A6" s="39"/>
+      <c r="B6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="L6" s="12" t="s">
+      <c r="L6" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="M6" s="2" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="6">
+      <c r="A7" s="38">
         <v>1</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="21" t="s">
+      <c r="H7" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="21" t="s">
+      <c r="I7" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="L7" s="12" t="s">
+      <c r="L7" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="M7" s="2" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="13"/>
-      <c r="B8" s="22" t="s">
+      <c r="A8" s="39"/>
+      <c r="B8" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="21" t="s">
+      <c r="H8" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="21" t="s">
+      <c r="I8" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="L8" s="12" t="s">
+      <c r="L8" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="M8" s="2" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="3">
+      <c r="B9" s="43"/>
+      <c r="C9" s="2">
         <v>7.5</v>
       </c>
-      <c r="D9" s="25">
+      <c r="D9" s="18">
         <v>7.5</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <v>7.5</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="2">
         <v>7.5</v>
       </c>
-      <c r="H9" s="21" t="s">
+      <c r="H9" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="21" t="s">
+      <c r="I9" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="K9" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="L9" s="12" t="s">
+      <c r="L9" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="M9" s="2" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="26"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="H10" s="21" t="s">
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="H10" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="21" t="s">
+      <c r="I10" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="K10" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="L10" s="12" t="s">
+      <c r="L10" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="M10" s="2" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="26"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="H11" s="19" t="s">
+      <c r="A11" s="19"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="H11" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="I11" s="19" t="s">
+      <c r="I11" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="K11" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="L11" s="12" t="s">
+      <c r="L11" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="M11" s="3" t="s">
+      <c r="M11" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="26"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="H12" s="19" t="s">
+      <c r="A12" s="19"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="H12" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="I12" s="19" t="s">
+      <c r="I12" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="K12" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="L12" s="12" t="s">
+      <c r="L12" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="M12" s="3" t="s">
+      <c r="M12" s="2" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="33"/>
-      <c r="H13" s="19" t="s">
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="32"/>
+      <c r="H13" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="I13" s="19" t="s">
+      <c r="I13" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="K13" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="L13" s="12" t="s">
+      <c r="L13" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="M13" s="3" t="s">
+      <c r="M13" s="2" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="H14" s="17" t="s">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="H14" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="I14" s="17" t="s">
+      <c r="I14" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="L14" s="12" t="s">
+      <c r="L14" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="M14" s="2" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="6">
+      <c r="A15" s="38">
         <v>3</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="37" t="s">
+      <c r="D15" s="41"/>
+      <c r="E15" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="37" t="s">
+      <c r="F15" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="H15" s="17" t="s">
+      <c r="H15" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="I15" s="17" t="s">
+      <c r="I15" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="K15" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="L15" s="12" t="s">
+      <c r="L15" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="M15" s="3" t="s">
+      <c r="M15" s="2" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="13"/>
-      <c r="B16" s="14" t="s">
+      <c r="A16" s="39"/>
+      <c r="B16" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="F16" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H16" s="17" t="s">
+      <c r="H16" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="I16" s="17" t="s">
+      <c r="I16" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="K16" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="L16" s="12" t="s">
+      <c r="L16" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="M16" s="3" t="s">
+      <c r="M16" s="2" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="6">
+      <c r="A17" s="38">
         <v>2</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="K17" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="L17" s="29"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="20"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="39"/>
+      <c r="B18" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="38">
+        <v>1</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="39"/>
+      <c r="B20" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="K20" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="L20" s="32"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="43"/>
+      <c r="C21" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="D21" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="E21" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="F21" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="K22" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K23" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="L23" s="18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B24" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="E17" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="F17" s="17" t="s">
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="35"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="L24" s="18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B25" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="J25" s="24"/>
+      <c r="K25" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="L25" s="18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="K26" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="L26" s="18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="K27" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="L27" s="18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B28" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="K28" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="L28" s="18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B29" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="K29" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="L29" s="18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B30" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="D30" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="H17" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="I17" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="K17" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="L17" s="35"/>
-      <c r="M17" s="36"/>
-      <c r="N17" s="27"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="13"/>
-      <c r="B18" s="18" t="s">
+      <c r="E30" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="K30" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="L30" s="18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B31" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="K31" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="L31" s="18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B32" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="18"/>
+      <c r="K32" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="L32" s="18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B33" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="18"/>
+      <c r="K33" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="L33" s="18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B34" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" s="18"/>
+      <c r="K34" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="L34" s="18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B35" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="F18" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="6">
-        <v>1</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="E19" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="F19" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="13"/>
-      <c r="B20" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="K20" s="32" t="s">
-        <v>90</v>
-      </c>
-      <c r="L20" s="33"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="24"/>
-      <c r="C21" s="3">
-        <v>7.5</v>
-      </c>
-      <c r="D21" s="3">
-        <v>7.5</v>
-      </c>
-      <c r="E21" s="3">
-        <v>7.5</v>
-      </c>
-      <c r="F21" s="3">
-        <v>7.5</v>
-      </c>
-      <c r="K21" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="L21" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="K22" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="K23" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="L23" s="25" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B24" s="41" t="s">
-        <v>89</v>
-      </c>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="43"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="L24" s="25" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B25" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="J25" s="31"/>
-      <c r="K25" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="L25" s="25" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B26" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="K26" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="L26" s="25" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B27" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="K27" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="L27" s="25" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B28" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E28" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="K28" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="L28" s="25" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B29" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E29" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="K29" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="L29" s="25" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B30" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="C30" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="D30" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="E30" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="K30" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="L30" s="25" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B31" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="C31" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="D31" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="E31" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="K31" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="L31" s="25" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B32" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E32" s="25"/>
-      <c r="K32" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="L32" s="25" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B33" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E33" s="25"/>
-      <c r="K33" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="L33" s="25" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B34" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="E34" s="25"/>
-      <c r="K34" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="L34" s="25" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B35" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E35" s="25"/>
+      <c r="E35" s="18"/>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B36" s="25"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B37" s="25"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="25"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B39" s="25"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A1:F1"/>
     <mergeCell ref="K17:M17"/>
     <mergeCell ref="K20:L20"/>
     <mergeCell ref="B24:E24"/>
@@ -1867,7 +1862,6 @@
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
